--- a/MULTICORE/ISA (version 2).xlsx
+++ b/MULTICORE/ISA (version 2).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sachi\Documents\GitHub\CCSS-Processor-Design\TRANSPOSED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sachi\Documents\GitHub\CCSS-Processor-Design\MULTICORE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12178D06-57F9-45B5-8E10-705390126C39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6261C8-7EAE-43D3-95E5-CA4A18B568B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{F9FC4EB7-60E8-4B7B-A0E0-BCAB8887FB56}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{F9FC4EB7-60E8-4B7B-A0E0-BCAB8887FB56}"/>
   </bookViews>
   <sheets>
     <sheet name="ISA" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="185">
   <si>
     <t>OPCODE</t>
   </si>
@@ -91,9 +91,6 @@
     <t>CLAC</t>
   </si>
   <si>
-    <t>AC &lt;- 0, PC &lt;- 0, Z &lt;- 0</t>
-  </si>
-  <si>
     <t>RESET</t>
   </si>
   <si>
@@ -136,9 +133,6 @@
     <t>JUMP_4</t>
   </si>
   <si>
-    <t>CLEARAC</t>
-  </si>
-  <si>
     <t>no operation</t>
   </si>
   <si>
@@ -163,30 +157,6 @@
     <t>PC &lt;- PC + 1</t>
   </si>
   <si>
-    <t>MULV</t>
-  </si>
-  <si>
-    <t>ADDV</t>
-  </si>
-  <si>
-    <t>MULV_1</t>
-  </si>
-  <si>
-    <t>ADDV_1</t>
-  </si>
-  <si>
-    <t>ADDV_2</t>
-  </si>
-  <si>
-    <t>ADDV_3</t>
-  </si>
-  <si>
-    <t>ADDV_4</t>
-  </si>
-  <si>
-    <t>ADDV_5</t>
-  </si>
-  <si>
     <t>ADD_1</t>
   </si>
   <si>
@@ -229,9 +199,6 @@
     <t xml:space="preserve">AC &lt;- DR </t>
   </si>
   <si>
-    <t>AC &lt;- AC * DR</t>
-  </si>
-  <si>
     <t>DR &lt;- M ; PC &lt;- PC + 1</t>
   </si>
   <si>
@@ -259,9 +226,6 @@
     <t>PC &lt;- DRTR , Read</t>
   </si>
   <si>
-    <t>AC &lt;- AC + DRTR</t>
-  </si>
-  <si>
     <t>INSTRUCTION</t>
   </si>
   <si>
@@ -292,9 +256,6 @@
     <t>Jump to instruction address a.</t>
   </si>
   <si>
-    <t>Clears AC, clears PC, Clears Z flag.</t>
-  </si>
-  <si>
     <t>Moves AC to any register R1.</t>
   </si>
   <si>
@@ -349,18 +310,9 @@
     <t>R[R1] &lt;- R[R1] + 1</t>
   </si>
   <si>
-    <t>AC &lt;-  AC  *  a</t>
-  </si>
-  <si>
-    <t>Multiply AC by any given constant value a.</t>
-  </si>
-  <si>
     <t>Resets any given register R1.</t>
   </si>
   <si>
-    <t>AC &lt;-  AC  +  a</t>
-  </si>
-  <si>
     <t>AC &lt;- AC (+) R[R1] , if AC (+) R[R1] = 0 then Z &lt;- 1, else Z &lt;- 0</t>
   </si>
   <si>
@@ -373,12 +325,6 @@
     <t>Performs XOR on AC with any given register R1. If result is zero set Z flag to 1.</t>
   </si>
   <si>
-    <t>Add any given constant value a to AC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A bus &lt;- DRTR </t>
-  </si>
-  <si>
     <t>Register</t>
   </si>
   <si>
@@ -457,12 +403,6 @@
     <t>Stores current position and current sum</t>
   </si>
   <si>
-    <t>AVAL</t>
-  </si>
-  <si>
-    <t>Stores the value at current position of 1st matrix</t>
-  </si>
-  <si>
     <t>AC</t>
   </si>
   <si>
@@ -514,9 +454,6 @@
     <t>00001101 xxxxxxxx</t>
   </si>
   <si>
-    <t>00001110 xxxxxxxx</t>
-  </si>
-  <si>
     <t>LDAC</t>
   </si>
   <si>
@@ -574,7 +511,85 @@
     <t>STA,STB,STC,A,B</t>
   </si>
   <si>
-    <t>MULV_2</t>
+    <t>DIV</t>
+  </si>
+  <si>
+    <t>MOD</t>
+  </si>
+  <si>
+    <t>00001111 xxxxxxxx</t>
+  </si>
+  <si>
+    <t>00010000 xxxxxxxx</t>
+  </si>
+  <si>
+    <t>AC &lt;- 0, Z &lt;- 0</t>
+  </si>
+  <si>
+    <t>Clears AC, Clears Z flag.</t>
+  </si>
+  <si>
+    <t>AC &lt;- AC / R[R1] , if AC / R[R1] = 0 then Z &lt;- 1, else Z &lt;- 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divides AC by any given register R1. If result is zero set Z flag to 1. </t>
+  </si>
+  <si>
+    <t>AC &lt;-  AC % R[R1]</t>
+  </si>
+  <si>
+    <t>Performs MOD on AC by any given register R1.</t>
+  </si>
+  <si>
+    <t>DIV_1</t>
+  </si>
+  <si>
+    <t>DIV_2</t>
+  </si>
+  <si>
+    <t>DIV_3</t>
+  </si>
+  <si>
+    <t>AC &lt;- AC / R[R1], if AC=0 set Z=1</t>
+  </si>
+  <si>
+    <t>MOD_1</t>
+  </si>
+  <si>
+    <t>MOD_2</t>
+  </si>
+  <si>
+    <t>MOD_3</t>
+  </si>
+  <si>
+    <t>AC &lt;- AC % R[R1]</t>
+  </si>
+  <si>
+    <t>MULTWO</t>
+  </si>
+  <si>
+    <t>AC &lt;-  AC  *  2</t>
+  </si>
+  <si>
+    <t>Multiply AC by 2.</t>
+  </si>
+  <si>
+    <t>MULTWO_1</t>
+  </si>
+  <si>
+    <t>AC &lt;- AC * 2</t>
+  </si>
+  <si>
+    <t>CoreID</t>
+  </si>
+  <si>
+    <t>Identifier number of the core</t>
+  </si>
+  <si>
+    <t>R, R1</t>
+  </si>
+  <si>
+    <t>General purpose registers.</t>
   </si>
 </sst>
 </file>
@@ -652,7 +667,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -845,11 +860,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -918,9 +982,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -952,9 +1013,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1021,6 +1079,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1336,10 +1416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86182E25-EC7A-483E-BB54-73CF54E3BA6D}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1353,25 +1433,25 @@
     <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="61"/>
+      <c r="A2" s="59"/>
       <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="42" t="s">
-        <v>145</v>
+      <c r="C2" s="40" t="s">
+        <v>125</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>2</v>
@@ -1381,44 +1461,44 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="61"/>
-      <c r="B3" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>106</v>
+      <c r="A3" s="59"/>
+      <c r="B3" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="58" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>147</v>
+        <v>139</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>127</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>148</v>
+        <v>140</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>128</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>10</v>
@@ -1428,48 +1508,48 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="44" t="s">
-        <v>149</v>
+      <c r="C6" s="42" t="s">
+        <v>129</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="44" t="s">
-        <v>150</v>
+      <c r="C7" s="42" t="s">
+        <v>130</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="44" t="s">
-        <v>151</v>
+      <c r="C8" s="42" t="s">
+        <v>131</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1477,14 +1557,14 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="44" t="s">
-        <v>152</v>
+      <c r="C9" s="42" t="s">
+        <v>132</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1494,113 +1574,131 @@
       <c r="B10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="45" t="s">
-        <v>153</v>
+      <c r="C10" s="43" t="s">
+        <v>133</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="60" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="45" t="s">
-        <v>154</v>
+      <c r="C11" s="43" t="s">
+        <v>134</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="63"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>155</v>
+        <v>141</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>135</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="63"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="46" t="s">
-        <v>156</v>
+      <c r="C13" s="44" t="s">
+        <v>136</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="63"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="46" t="s">
-        <v>157</v>
+      <c r="C14" s="44" t="s">
+        <v>137</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>111</v>
+        <v>92</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="63"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="48" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="61"/>
+      <c r="B16" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="64"/>
-      <c r="B16" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="48" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="62"/>
+      <c r="B17" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="D16" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>112</v>
-      </c>
+      <c r="C17" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A11:A17"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1612,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43D6E7A-3E49-43BB-8E17-C3E4A8489588}">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1628,10 +1726,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -1642,7 +1740,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1651,32 +1749,32 @@
       <c r="C3" s="22"/>
     </row>
     <row r="4" spans="1:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>66</v>
+      <c r="A4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
       <c r="B5" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1685,59 +1783,59 @@
       <c r="C7" s="22"/>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>28</v>
+      <c r="A8" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="21" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="21" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="21" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="21" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1746,68 +1844,68 @@
       <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:3" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>28</v>
+      <c r="A15" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="21" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="21" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="21" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="21" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="21" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="21" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1816,14 +1914,14 @@
       <c r="C22" s="22"/>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>18</v>
+      <c r="A23" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1832,41 +1930,41 @@
       <c r="C24" s="22"/>
     </row>
     <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>28</v>
+      <c r="B25" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="B26" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
       <c r="B27" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="20"/>
       <c r="B28" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1875,59 +1973,59 @@
       <c r="C29" s="22"/>
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>28</v>
+      <c r="B30" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="20"/>
       <c r="B31" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="20"/>
       <c r="B32" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="20"/>
       <c r="B34" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="22" t="s">
         <v>39</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="20"/>
       <c r="B35" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1936,320 +2034,322 @@
       <c r="C36" s="22"/>
     </row>
     <row r="37" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="20"/>
-      <c r="B38" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="22"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+    </row>
+    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="40" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>28</v>
+      <c r="A40" s="20"/>
+      <c r="B40" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="20"/>
-      <c r="B41" s="21" t="s">
-        <v>46</v>
-      </c>
+      <c r="B41" s="21"/>
       <c r="C41" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="20"/>
-      <c r="B42" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>113</v>
+      <c r="B42" s="21"/>
+      <c r="C42" s="22"/>
+    </row>
+    <row r="43" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="20"/>
       <c r="B44" s="21" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="22"/>
-    </row>
-    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
-      <c r="B47" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>92</v>
+      <c r="B45" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="20"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="22"/>
+    </row>
+    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="20"/>
-      <c r="B48" s="21"/>
+      <c r="B48" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="C48" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="20"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="22"/>
-    </row>
-    <row r="50" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="20"/>
-      <c r="B51" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>77</v>
+      <c r="B49" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="20"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="22"/>
+    </row>
+    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="20"/>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="20"/>
+      <c r="B53" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="1" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="20"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="22"/>
+    </row>
+    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="20"/>
+      <c r="B56" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="20"/>
+      <c r="B57" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="20"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="46"/>
+    </row>
+    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="20"/>
+      <c r="B60" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="20"/>
+      <c r="B61" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="20"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="47"/>
+    </row>
+    <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="20"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="22"/>
-    </row>
-    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="20"/>
-      <c r="B55" s="23" t="s">
+      <c r="C63" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="20"/>
+      <c r="B64" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="20"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="29"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="31"/>
+    </row>
+    <row r="67" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C67" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="20"/>
-      <c r="B56" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="20"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="22"/>
-    </row>
-    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="20"/>
-      <c r="B59" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="20"/>
-      <c r="B60" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C60" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="20"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="22"/>
-    </row>
-    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B62" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C62" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="20"/>
-      <c r="B63" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="20"/>
-      <c r="B64" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C64" s="48" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="20"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="48"/>
-    </row>
-    <row r="66" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B66" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C66" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="20"/>
-      <c r="B67" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="20"/>
-      <c r="B68" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C68" s="48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="20"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="49"/>
-    </row>
-    <row r="70" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B70" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C70" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="20"/>
-      <c r="B71" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C71" s="22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B69" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="29"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="31"/>
+    </row>
+    <row r="71" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="20"/>
-      <c r="B72" s="21"/>
+      <c r="B72" s="23" t="s">
+        <v>173</v>
+      </c>
       <c r="C72" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="30"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="32"/>
-    </row>
-    <row r="74" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="38"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="24"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="20"/>
+      <c r="B73" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="29"/>
+      <c r="B74" s="66"/>
+      <c r="C74" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2259,10 +2359,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51276C7B-AB3B-47C6-8AF2-E7F8CBB216C3}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2274,195 +2374,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="50"/>
-      <c r="B1" s="57" t="s">
+      <c r="A1" s="48"/>
+      <c r="B1" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="50">
+        <v>16</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="63"/>
+      <c r="B3" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="50">
+        <v>8</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="63"/>
+      <c r="B4" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="50">
+        <v>16</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="63"/>
+      <c r="B5" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="50">
+        <v>8</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="63"/>
+      <c r="B6" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="50">
+        <v>8</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="63"/>
+      <c r="B7" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="50">
+        <v>1</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="65">
+        <v>8</v>
+      </c>
+      <c r="D8" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="58" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="72"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="59" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="72"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="53" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="72"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="51" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="72"/>
+      <c r="B12" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C12" s="50">
+        <v>8</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="72"/>
+      <c r="B13" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="50">
+        <v>8</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="72"/>
+      <c r="B14" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="50">
         <v>16</v>
       </c>
-      <c r="D2" s="51" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="65"/>
-      <c r="B3" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="52">
+      <c r="D14" s="49" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="72"/>
+      <c r="B15" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="50">
+        <v>16</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="72"/>
+      <c r="B16" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="68">
+        <v>16</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="73"/>
+      <c r="B17" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="70">
         <v>8</v>
       </c>
-      <c r="D3" s="51" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
-      <c r="B4" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="52">
-        <v>16</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
-      <c r="B5" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="52">
-        <v>8</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
-      <c r="B6" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="52">
-        <v>8</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
-      <c r="B7" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="52">
-        <v>1</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="67">
-        <v>8</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="65"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="55" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="55" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="65"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="56" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="65"/>
-      <c r="B12" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="52">
-        <v>8</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="65"/>
-      <c r="B13" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="52">
-        <v>8</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="65"/>
-      <c r="B14" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="52">
-        <v>8</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="65"/>
-      <c r="B15" s="53" t="s">
-        <v>178</v>
-      </c>
-      <c r="C15" s="52">
-        <v>16</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="65"/>
-      <c r="B16" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="52">
-        <v>16</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>143</v>
+      <c r="D17" s="69" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A16"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="C8:C11"/>
+    <mergeCell ref="A8:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MULTICORE/ISA (version 2).xlsx
+++ b/MULTICORE/ISA (version 2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sachi\Documents\GitHub\CCSS-Processor-Design\MULTICORE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6261C8-7EAE-43D3-95E5-CA4A18B568B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFBA3EB-A56E-4E6F-BF36-887E299B33C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{F9FC4EB7-60E8-4B7B-A0E0-BCAB8887FB56}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{F9FC4EB7-60E8-4B7B-A0E0-BCAB8887FB56}"/>
   </bookViews>
   <sheets>
     <sheet name="ISA" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="186">
   <si>
     <t>OPCODE</t>
   </si>
@@ -220,9 +220,6 @@
     <t>DRTR &lt;- AC , Write</t>
   </si>
   <si>
-    <t>DR &lt;- TR</t>
-  </si>
-  <si>
     <t>PC &lt;- DRTR , Read</t>
   </si>
   <si>
@@ -590,6 +587,12 @@
   </si>
   <si>
     <t>General purpose registers.</t>
+  </si>
+  <si>
+    <t>DR &lt;- TR , Write</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A bus &lt;- AC</t>
   </si>
 </sst>
 </file>
@@ -1056,30 +1059,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1092,6 +1071,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1433,25 +1436,25 @@
     <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
+      <c r="A2" s="64"/>
       <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>2</v>
@@ -1461,44 +1464,44 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="59"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="36" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>126</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>127</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>10</v>
@@ -1508,48 +1511,48 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>162</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1558,13 +1561,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1575,124 +1578,124 @@
         <v>13</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="65" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="66"/>
+      <c r="B12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="61"/>
-      <c r="B12" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>135</v>
-      </c>
       <c r="D12" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="66"/>
+      <c r="B15" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="61"/>
-      <c r="B15" s="20" t="s">
+      <c r="D15" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C15" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="E15" s="37" t="s">
-        <v>178</v>
-      </c>
     </row>
     <row r="16" spans="1:5" s="48" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="61"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="48" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="67"/>
+      <c r="B17" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C17" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E16" s="37" t="s">
+      <c r="D17" s="39" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" s="48" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="62"/>
-      <c r="B17" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" s="39" t="s">
+      <c r="E17" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="E17" s="38" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="18" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="67"/>
+      <c r="A18" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1708,10 +1711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43D6E7A-3E49-43BB-8E17-C3E4A8489588}">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1784,10 +1787,10 @@
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>27</v>
@@ -1796,7 +1799,7 @@
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>58</v>
@@ -1805,7 +1808,7 @@
     <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>27</v>
@@ -1814,7 +1817,7 @@
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>59</v>
@@ -1823,7 +1826,7 @@
     <row r="12" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>26</v>
@@ -1832,7 +1835,7 @@
     <row r="13" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>53</v>
@@ -1845,10 +1848,10 @@
     </row>
     <row r="15" spans="1:3" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>27</v>
@@ -1857,7 +1860,7 @@
     <row r="16" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>58</v>
@@ -1866,7 +1869,7 @@
     <row r="17" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>27</v>
@@ -1875,7 +1878,7 @@
     <row r="18" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>59</v>
@@ -1884,7 +1887,7 @@
     <row r="19" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>60</v>
@@ -1893,7 +1896,7 @@
     <row r="20" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>56</v>
@@ -1902,10 +1905,10 @@
     <row r="21" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1921,7 +1924,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1964,7 +1967,7 @@
         <v>31</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2007,7 +2010,7 @@
         <v>36</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2035,13 +2038,13 @@
     </row>
     <row r="37" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B37" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" s="26" t="s">
         <v>179</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2051,10 +2054,10 @@
     </row>
     <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>27</v>
@@ -2063,17 +2066,17 @@
     <row r="40" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="20"/>
       <c r="B40" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="20"/>
       <c r="B41" s="21"/>
       <c r="C41" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2098,7 +2101,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2107,7 +2110,7 @@
         <v>42</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2132,16 +2135,16 @@
         <v>44</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="20"/>
       <c r="B49" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2166,16 +2169,16 @@
         <v>45</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
       <c r="B53" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="1" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2200,7 +2203,7 @@
         <v>47</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2209,147 +2212,154 @@
         <v>48</v>
       </c>
       <c r="C57" s="46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="20"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="46"/>
-    </row>
-    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="24" t="s">
+      <c r="B58" s="33"/>
+      <c r="C58" s="46" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="20"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="46"/>
+    </row>
+    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="32" t="s">
+      <c r="B60" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C59" s="28" t="s">
+      <c r="C60" s="28" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="20"/>
-      <c r="B60" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="20"/>
       <c r="B61" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="20"/>
+      <c r="B62" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C61" s="46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="20"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="47"/>
-    </row>
-    <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="24" t="s">
+      <c r="C62" s="46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="20"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="47"/>
+    </row>
+    <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B64" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C64" s="26" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="20"/>
-      <c r="B64" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="20"/>
-      <c r="B65" s="21"/>
+      <c r="B65" s="21" t="s">
+        <v>80</v>
+      </c>
       <c r="C65" s="22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="29"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="31"/>
-    </row>
-    <row r="67" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="C67" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="20"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="29"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="31"/>
+    </row>
+    <row r="68" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C68" s="26" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="20"/>
-      <c r="B68" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="20"/>
       <c r="B69" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="20"/>
+      <c r="B70" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C70" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="C69" s="22" t="s">
+    </row>
+    <row r="71" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="29"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="31"/>
+    </row>
+    <row r="72" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" s="25" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="29"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="31"/>
-    </row>
-    <row r="71" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="B71" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C71" s="26" t="s">
+      <c r="C72" s="26" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="20"/>
-      <c r="B72" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="20"/>
       <c r="B73" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="20"/>
+      <c r="B74" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C74" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="C73" s="22" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="29"/>
-      <c r="B74" s="66"/>
-      <c r="C74" s="31"/>
+    </row>
+    <row r="75" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="29"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2361,7 +2371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51276C7B-AB3B-47C6-8AF2-E7F8CBB216C3}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -2376,197 +2386,197 @@
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="48"/>
       <c r="B1" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="D1" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="57" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="68" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="63" t="s">
+      <c r="B2" s="49" t="s">
         <v>99</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>100</v>
       </c>
       <c r="C2" s="50">
         <v>16</v>
       </c>
       <c r="D2" s="49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="68"/>
+      <c r="B3" s="49" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="63"/>
-      <c r="B3" s="49" t="s">
-        <v>102</v>
       </c>
       <c r="C3" s="50">
         <v>8</v>
       </c>
       <c r="D3" s="49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="68"/>
+      <c r="B4" s="49" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
-      <c r="B4" s="49" t="s">
-        <v>104</v>
       </c>
       <c r="C4" s="50">
         <v>16</v>
       </c>
       <c r="D4" s="49" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="68"/>
+      <c r="B5" s="49" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="63"/>
-      <c r="B5" s="49" t="s">
-        <v>106</v>
       </c>
       <c r="C5" s="50">
         <v>8</v>
       </c>
       <c r="D5" s="49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="68"/>
+      <c r="B6" s="49" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="63"/>
-      <c r="B6" s="49" t="s">
-        <v>108</v>
       </c>
       <c r="C6" s="50">
         <v>8</v>
       </c>
       <c r="D6" s="49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="68"/>
+      <c r="B7" s="49" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="63"/>
-      <c r="B7" s="49" t="s">
-        <v>110</v>
       </c>
       <c r="C7" s="50">
         <v>1</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="C8" s="70">
+        <v>8</v>
+      </c>
+      <c r="D8" s="52" t="s">
         <v>113</v>
-      </c>
-      <c r="C8" s="65">
-        <v>8</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="72"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="65"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="72"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="72"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="65"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="72"/>
       <c r="B12" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="50">
         <v>8</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="72"/>
       <c r="B13" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C13" s="50">
         <v>8</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="72"/>
       <c r="B14" s="51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C14" s="50">
         <v>16</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="72"/>
       <c r="B15" s="51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C15" s="50">
         <v>16</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="72"/>
       <c r="B16" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="60">
+        <v>16</v>
+      </c>
+      <c r="D16" s="52" t="s">
         <v>122</v>
-      </c>
-      <c r="C16" s="68">
-        <v>16</v>
-      </c>
-      <c r="D16" s="52" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="73"/>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="62">
+        <v>8</v>
+      </c>
+      <c r="D17" s="61" t="s">
         <v>181</v>
-      </c>
-      <c r="C17" s="70">
-        <v>8</v>
-      </c>
-      <c r="D17" s="69" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/MULTICORE/ISA (version 2).xlsx
+++ b/MULTICORE/ISA (version 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sachi\Documents\GitHub\CCSS-Processor-Design\MULTICORE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFBA3EB-A56E-4E6F-BF36-887E299B33C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E860DF-75C1-4A14-BC1C-81BA203E0E72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{F9FC4EB7-60E8-4B7B-A0E0-BCAB8887FB56}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="183">
   <si>
     <t>OPCODE</t>
   </si>
@@ -181,9 +181,6 @@
     <t>MOVEAC_2</t>
   </si>
   <si>
-    <t>MOVEAC_3</t>
-  </si>
-  <si>
     <t>MOVETOAC_1</t>
   </si>
   <si>
@@ -232,15 +229,9 @@
     <t>WTA_sel &lt;- DR[4:0]</t>
   </si>
   <si>
-    <t xml:space="preserve"> WTA_sel &lt;- 01111</t>
-  </si>
-  <si>
     <t xml:space="preserve"> WTA_sel &lt;- DR[4:0] </t>
   </si>
   <si>
-    <t xml:space="preserve"> WTR_sel &lt;- DR[4:0]</t>
-  </si>
-  <si>
     <t xml:space="preserve"> WTR_sel &lt;- 01111</t>
   </si>
   <si>
@@ -592,7 +583,7 @@
     <t>DR &lt;- TR , Write</t>
   </si>
   <si>
-    <t xml:space="preserve"> A bus &lt;- AC</t>
+    <t xml:space="preserve"> WTR_sel &lt;- DR[4:0] , A bus &lt;- AC</t>
   </si>
 </sst>
 </file>
@@ -1436,13 +1427,13 @@
     <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>1</v>
@@ -1454,7 +1445,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>2</v>
@@ -1469,13 +1460,13 @@
         <v>18</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1483,25 +1474,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="64"/>
       <c r="B5" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>10</v>
@@ -1516,13 +1507,13 @@
         <v>16</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1531,13 +1522,13 @@
         <v>15</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1546,13 +1537,13 @@
         <v>17</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1561,13 +1552,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1578,13 +1569,13 @@
         <v>13</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1595,28 +1586,28 @@
         <v>7</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="66"/>
       <c r="B12" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1625,13 +1616,13 @@
         <v>14</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1640,58 +1631,58 @@
         <v>12</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D14" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="37" t="s">
         <v>91</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="66"/>
       <c r="B15" s="20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="48" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="66"/>
       <c r="B16" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="48" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="67"/>
       <c r="B17" s="29" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1711,10 +1702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43D6E7A-3E49-43BB-8E17-C3E4A8489588}">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1759,7 +1750,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -1777,7 +1768,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1787,10 +1778,10 @@
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>138</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>141</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>27</v>
@@ -1799,16 +1790,16 @@
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>27</v>
@@ -1817,16 +1808,16 @@
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="21" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>26</v>
@@ -1835,10 +1826,10 @@
     <row r="13" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1848,10 +1839,10 @@
     </row>
     <row r="15" spans="1:3" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>27</v>
@@ -1860,16 +1851,16 @@
     <row r="16" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>27</v>
@@ -1878,37 +1869,37 @@
     <row r="18" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="21" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="21" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1924,7 +1915,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1949,7 +1940,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -1967,7 +1958,7 @@
         <v>31</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1992,7 +1983,7 @@
         <v>34</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2010,7 +2001,7 @@
         <v>36</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2038,13 +2029,13 @@
     </row>
     <row r="37" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="B37" s="25" t="s">
-        <v>178</v>
-      </c>
       <c r="C37" s="26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2054,10 +2045,10 @@
     </row>
     <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>27</v>
@@ -2066,17 +2057,17 @@
     <row r="40" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="20"/>
       <c r="B40" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="20"/>
       <c r="B41" s="21"/>
       <c r="C41" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2092,7 +2083,7 @@
         <v>40</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2101,7 +2092,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2110,7 +2101,7 @@
         <v>42</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2126,7 +2117,7 @@
         <v>43</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2135,16 +2126,16 @@
         <v>44</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="20"/>
       <c r="B49" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2160,7 +2151,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2169,16 +2160,16 @@
         <v>45</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
       <c r="B53" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="1" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2194,7 +2185,7 @@
         <v>46</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2202,164 +2193,148 @@
       <c r="B56" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="46" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="29"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="46"/>
+    </row>
+    <row r="58" spans="1:3" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="20"/>
+      <c r="B59" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="20"/>
+      <c r="B60" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="46" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="20"/>
-      <c r="B57" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C57" s="46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="20"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="46" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="20"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="46"/>
-    </row>
-    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C60" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="20"/>
-      <c r="B61" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>66</v>
-      </c>
+      <c r="B61" s="27"/>
+      <c r="C61" s="47"/>
     </row>
     <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="20"/>
-      <c r="B62" s="33" t="s">
+      <c r="A62" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C62" s="46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C62" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="20"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="47"/>
+      <c r="B63" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="20"/>
-      <c r="B65" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>79</v>
-      </c>
+      <c r="A64" s="20"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="29"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="31"/>
     </row>
     <row r="66" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="20"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="29"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="31"/>
+      <c r="A66" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="20"/>
+      <c r="B67" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="68" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="B68" s="25" t="s">
+      <c r="A68" s="20"/>
+      <c r="B68" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="C68" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="20"/>
-      <c r="B69" s="23" t="s">
+    </row>
+    <row r="69" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="29"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="31"/>
+    </row>
+    <row r="70" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B70" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="C69" s="22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="20"/>
-      <c r="B70" s="23" t="s">
+      <c r="C70" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="20"/>
+      <c r="B71" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C71" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="20"/>
+      <c r="B72" s="23" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="29"/>
-      <c r="B71" s="58"/>
-      <c r="C71" s="31"/>
-    </row>
-    <row r="72" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="B72" s="25" t="s">
+      <c r="C72" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="C72" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="20"/>
-      <c r="B73" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="20"/>
-      <c r="B74" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="29"/>
-      <c r="B75" s="58"/>
-      <c r="C75" s="31"/>
+    </row>
+    <row r="73" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="29"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2386,101 +2361,101 @@
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="48"/>
       <c r="B1" s="55" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="68" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C2" s="50">
         <v>16</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="68"/>
       <c r="B3" s="49" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C3" s="50">
         <v>8</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="68"/>
       <c r="B4" s="49" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C4" s="50">
         <v>16</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="68"/>
       <c r="B5" s="49" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C5" s="50">
         <v>8</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="68"/>
       <c r="B6" s="49" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C6" s="50">
         <v>8</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="68"/>
       <c r="B7" s="49" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C7" s="50">
         <v>1</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="71" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C8" s="70">
         <v>8</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2488,7 +2463,7 @@
       <c r="B9" s="69"/>
       <c r="C9" s="70"/>
       <c r="D9" s="53" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2496,7 +2471,7 @@
       <c r="B10" s="69"/>
       <c r="C10" s="70"/>
       <c r="D10" s="53" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2504,79 +2479,79 @@
       <c r="B11" s="69"/>
       <c r="C11" s="70"/>
       <c r="D11" s="54" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="72"/>
       <c r="B12" s="51" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C12" s="50">
         <v>8</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="72"/>
       <c r="B13" s="51" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C13" s="50">
         <v>8</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="72"/>
       <c r="B14" s="51" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C14" s="50">
         <v>16</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="72"/>
       <c r="B15" s="51" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C15" s="50">
         <v>16</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="72"/>
       <c r="B16" s="52" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C16" s="60">
         <v>16</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="73"/>
       <c r="B17" s="61" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C17" s="62">
         <v>8</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/MULTICORE/ISA (version 2).xlsx
+++ b/MULTICORE/ISA (version 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sachi\Documents\GitHub\CCSS-Processor-Design\MULTICORE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E860DF-75C1-4A14-BC1C-81BA203E0E72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C8D499-7E0C-47B8-9070-8D3BEDB506F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{F9FC4EB7-60E8-4B7B-A0E0-BCAB8887FB56}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="185">
   <si>
     <t>OPCODE</t>
   </si>
@@ -187,9 +187,6 @@
     <t>MOVETOAC_2</t>
   </si>
   <si>
-    <t>MOVETOAC_3</t>
-  </si>
-  <si>
     <t>RESET_1</t>
   </si>
   <si>
@@ -229,12 +226,6 @@
     <t>WTA_sel &lt;- DR[4:0]</t>
   </si>
   <si>
-    <t xml:space="preserve"> WTA_sel &lt;- DR[4:0] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> WTR_sel &lt;- 01111</t>
-  </si>
-  <si>
     <t>AC &lt;- R[R1]</t>
   </si>
   <si>
@@ -584,13 +575,28 @@
   </si>
   <si>
     <t xml:space="preserve"> WTR_sel &lt;- DR[4:0] , A bus &lt;- AC</t>
+  </si>
+  <si>
+    <t>8 , 16</t>
+  </si>
+  <si>
+    <t>ALU_op &lt;- 110</t>
+  </si>
+  <si>
+    <t>MULTWO_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WTA_sel &lt;- DR[4:0] , AC &lt;- R[R1]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,13 +658,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="21">
@@ -907,7 +924,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1095,6 +1112,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1427,13 +1453,13 @@
     <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>1</v>
@@ -1445,7 +1471,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>2</v>
@@ -1460,13 +1486,13 @@
         <v>18</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1474,25 +1500,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="64"/>
       <c r="B5" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>10</v>
@@ -1507,13 +1533,13 @@
         <v>16</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1522,13 +1548,13 @@
         <v>15</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1537,13 +1563,13 @@
         <v>17</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1552,13 +1578,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1569,13 +1595,13 @@
         <v>13</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1586,28 +1612,28 @@
         <v>7</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="66"/>
       <c r="B12" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1616,13 +1642,13 @@
         <v>14</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1631,58 +1657,58 @@
         <v>12</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D14" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="37" t="s">
         <v>88</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="66"/>
       <c r="B15" s="20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="48" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="66"/>
       <c r="B16" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="48" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="67"/>
       <c r="B17" s="29" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1702,10 +1728,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43D6E7A-3E49-43BB-8E17-C3E4A8489588}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1750,7 +1776,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -1768,7 +1794,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1778,10 +1804,10 @@
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>135</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>138</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>27</v>
@@ -1790,16 +1816,16 @@
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>27</v>
@@ -1808,16 +1834,16 @@
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>26</v>
@@ -1826,10 +1852,10 @@
     <row r="13" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="21" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1837,12 +1863,12 @@
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
     </row>
-    <row r="15" spans="1:3" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>27</v>
@@ -1851,16 +1877,16 @@
     <row r="16" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>27</v>
@@ -1869,37 +1895,37 @@
     <row r="18" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1915,7 +1941,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1940,7 +1966,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -1958,7 +1984,7 @@
         <v>31</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1983,7 +2009,7 @@
         <v>34</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2001,7 +2027,7 @@
         <v>36</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2028,313 +2054,320 @@
       <c r="C36" s="22"/>
     </row>
     <row r="37" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="25" t="s">
-        <v>175</v>
-      </c>
       <c r="C37" s="26" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22"/>
-    </row>
-    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="C39" s="26" t="s">
+      <c r="B38" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="48" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="22"/>
+    </row>
+    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="26" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="20"/>
-      <c r="B41" s="21"/>
+      <c r="B41" s="21" t="s">
+        <v>149</v>
+      </c>
       <c r="C41" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="20"/>
       <c r="B42" s="21"/>
-      <c r="C42" s="22"/>
-    </row>
-    <row r="43" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="24" t="s">
+      <c r="C42" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="22"/>
+    </row>
+    <row r="44" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B44" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
-      <c r="B44" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>63</v>
+      <c r="C44" s="26" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="20"/>
       <c r="B45" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="20"/>
+      <c r="B46" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="22"/>
-    </row>
-    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="24" t="s">
+      <c r="C46" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="20"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="22"/>
+    </row>
+    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B48" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="20"/>
-      <c r="B48" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>63</v>
+      <c r="C48" s="26" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="20"/>
       <c r="B49" s="23" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="20"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="22"/>
-    </row>
-    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="24" t="s">
+      <c r="B50" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="20"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="22"/>
+    </row>
+    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B52" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="20"/>
-      <c r="B52" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
       <c r="B53" s="23" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" s="1" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="22"/>
-    </row>
-    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="24" t="s">
+      <c r="B54" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="1" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="20"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="22"/>
+    </row>
+    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="32" t="s">
+      <c r="B56" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="20"/>
-      <c r="B56" s="33" t="s">
+      <c r="C56" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="20"/>
+      <c r="B57" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="46" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="29"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="46"/>
-    </row>
-    <row r="58" spans="1:3" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="20" t="s">
+      <c r="C57" s="46" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="29"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="46"/>
+    </row>
+    <row r="59" spans="1:3" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="B58" s="32" t="s">
+      <c r="B59" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C58" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="20"/>
-      <c r="B59" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C59" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="20"/>
       <c r="B60" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="20"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="46" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="20"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="47"/>
+    </row>
+    <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C60" s="46" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="20"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="47"/>
-    </row>
-    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" s="26" t="s">
+      <c r="C63" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="20"/>
-      <c r="B63" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
-      <c r="B64" s="21"/>
+      <c r="B64" s="21" t="s">
+        <v>74</v>
+      </c>
       <c r="C64" s="22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="29"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="31"/>
-    </row>
-    <row r="66" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="20"/>
-      <c r="B67" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="20"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="29"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="31"/>
+    </row>
+    <row r="67" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="20"/>
       <c r="B68" s="23" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="29"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="31"/>
-    </row>
-    <row r="70" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="B70" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>53</v>
-      </c>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="20"/>
+      <c r="B69" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="29"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="31"/>
     </row>
     <row r="71" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="20"/>
-      <c r="B71" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="C71" s="22" t="s">
-        <v>63</v>
+      <c r="A71" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="20"/>
       <c r="B72" s="23" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="29"/>
-      <c r="B73" s="58"/>
-      <c r="C73" s="31"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="20"/>
+      <c r="B73" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="29"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2347,7 +2380,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2361,101 +2394,101 @@
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="48"/>
       <c r="B1" s="55" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="68" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C2" s="50">
         <v>16</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="68"/>
       <c r="B3" s="49" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C3" s="50">
         <v>8</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="68"/>
       <c r="B4" s="49" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C4" s="50">
         <v>16</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="68"/>
       <c r="B5" s="49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C5" s="50">
         <v>8</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="68"/>
       <c r="B6" s="49" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C6" s="50">
         <v>8</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="68"/>
       <c r="B7" s="49" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C7" s="50">
         <v>1</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="71" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C8" s="70">
         <v>8</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2463,7 +2496,7 @@
       <c r="B9" s="69"/>
       <c r="C9" s="70"/>
       <c r="D9" s="53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2471,7 +2504,7 @@
       <c r="B10" s="69"/>
       <c r="C10" s="70"/>
       <c r="D10" s="53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2479,79 +2512,79 @@
       <c r="B11" s="69"/>
       <c r="C11" s="70"/>
       <c r="D11" s="54" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="72"/>
       <c r="B12" s="51" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C12" s="50">
         <v>8</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="72"/>
       <c r="B13" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="50">
-        <v>8</v>
+        <v>113</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>180</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="72"/>
       <c r="B14" s="51" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C14" s="50">
         <v>16</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="72"/>
       <c r="B15" s="51" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C15" s="50">
         <v>16</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="72"/>
       <c r="B16" s="52" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C16" s="60">
         <v>16</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="73"/>
       <c r="B17" s="61" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C17" s="62">
         <v>8</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
